--- a/4_Files/resource/data.xlsx
+++ b/4_Files/resource/data.xlsx
@@ -873,7 +873,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
